--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H2">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I2">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J2">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N2">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q2">
-        <v>124.5390339041911</v>
+        <v>150.0208662552954</v>
       </c>
       <c r="R2">
-        <v>1120.85130513772</v>
+        <v>1350.187796297659</v>
       </c>
       <c r="S2">
-        <v>0.09376020498255105</v>
+        <v>0.09740015076354322</v>
       </c>
       <c r="T2">
-        <v>0.09376020498255105</v>
+        <v>0.09740015076354323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H3">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I3">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J3">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q3">
-        <v>213.6121984700696</v>
+        <v>204.9252665095643</v>
       </c>
       <c r="R3">
-        <v>1922.509786230627</v>
+        <v>1844.327398586079</v>
       </c>
       <c r="S3">
-        <v>0.160819647362409</v>
+        <v>0.1330465044730823</v>
       </c>
       <c r="T3">
-        <v>0.160819647362409</v>
+        <v>0.1330465044730823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H4">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I4">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J4">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N4">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q4">
-        <v>1.577133363731111</v>
+        <v>7.580123975680999</v>
       </c>
       <c r="R4">
-        <v>14.19420027358</v>
+        <v>68.221115781129</v>
       </c>
       <c r="S4">
-        <v>0.001187357431903708</v>
+        <v>0.004921350185922002</v>
       </c>
       <c r="T4">
-        <v>0.001187357431903708</v>
+        <v>0.004921350185922002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H5">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I5">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J5">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N5">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q5">
-        <v>974.6040425059574</v>
+        <v>1138.386157227876</v>
       </c>
       <c r="R5">
-        <v>8771.436382553617</v>
+        <v>10245.47541505089</v>
       </c>
       <c r="S5">
-        <v>0.733738426720735</v>
+        <v>0.739090408613155</v>
       </c>
       <c r="T5">
-        <v>0.733738426720735</v>
+        <v>0.739090408613155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H6">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I6">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J6">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N6">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q6">
-        <v>3.414090846397</v>
+        <v>5.144700164766</v>
       </c>
       <c r="R6">
-        <v>30.726817617573</v>
+        <v>46.302301482894</v>
       </c>
       <c r="S6">
-        <v>0.002570325524072188</v>
+        <v>0.003340165832856244</v>
       </c>
       <c r="T6">
-        <v>0.002570325524072188</v>
+        <v>0.003340165832856244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.455806</v>
       </c>
       <c r="I7">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J7">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N7">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q7">
-        <v>0.5902039442577778</v>
+        <v>0.7411034331335555</v>
       </c>
       <c r="R7">
-        <v>5.311835498320001</v>
+        <v>6.669930898202001</v>
       </c>
       <c r="S7">
-        <v>0.000444339746827417</v>
+        <v>0.0004811569744954718</v>
       </c>
       <c r="T7">
-        <v>0.0004443397468274171</v>
+        <v>0.0004811569744954719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.455806</v>
       </c>
       <c r="I8">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J8">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q8">
         <v>1.012331299884667</v>
@@ -948,10 +948,10 @@
         <v>9.110981698962002</v>
       </c>
       <c r="S8">
-        <v>0.0007621416933461894</v>
+        <v>0.0006572500458944643</v>
       </c>
       <c r="T8">
-        <v>0.0007621416933461895</v>
+        <v>0.0006572500458944645</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.455806</v>
       </c>
       <c r="I9">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J9">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N9">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q9">
-        <v>0.007474205497777778</v>
+        <v>0.037445830318</v>
       </c>
       <c r="R9">
-        <v>0.06726784948</v>
+        <v>0.337012472862</v>
       </c>
       <c r="S9">
-        <v>5.627015222331598E-06</v>
+        <v>2.431148152572754E-05</v>
       </c>
       <c r="T9">
-        <v>5.6270152223316E-06</v>
+        <v>2.431148152572754E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.455806</v>
       </c>
       <c r="I10">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J10">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N10">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q10">
-        <v>4.618753911477334</v>
+        <v>5.623630301651556</v>
       </c>
       <c r="R10">
-        <v>41.56878520329601</v>
+        <v>50.612672714864</v>
       </c>
       <c r="S10">
-        <v>0.003477265720860074</v>
+        <v>0.003651108361734029</v>
       </c>
       <c r="T10">
-        <v>0.003477265720860074</v>
+        <v>0.003651108361734029</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.455806</v>
       </c>
       <c r="I11">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J11">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N11">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q11">
-        <v>0.016179745582</v>
+        <v>0.025414830948</v>
       </c>
       <c r="R11">
-        <v>0.145617710238</v>
+        <v>0.228733478532</v>
       </c>
       <c r="S11">
-        <v>1.218105050903878E-05</v>
+        <v>1.650042709227316E-05</v>
       </c>
       <c r="T11">
-        <v>1.218105050903878E-05</v>
+        <v>1.650042709227316E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H12">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I12">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J12">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N12">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q12">
-        <v>0.3416857755422222</v>
+        <v>2.279700406744444</v>
       </c>
       <c r="R12">
-        <v>3.075171979879999</v>
+        <v>20.5173036607</v>
       </c>
       <c r="S12">
-        <v>0.0002572408613600347</v>
+        <v>0.001480081863643965</v>
       </c>
       <c r="T12">
-        <v>0.0002572408613600347</v>
+        <v>0.001480081863643965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H13">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I13">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J13">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q13">
-        <v>0.5860672546703333</v>
+        <v>3.114021569633334</v>
       </c>
       <c r="R13">
-        <v>5.274605292033</v>
+        <v>28.0261941267</v>
       </c>
       <c r="S13">
-        <v>0.0004412254070777899</v>
+        <v>0.002021759892034393</v>
       </c>
       <c r="T13">
-        <v>0.0004412254070777899</v>
+        <v>0.002021759892034394</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H14">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I14">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J14">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N14">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q14">
-        <v>0.004327029202222222</v>
+        <v>0.1151867213</v>
       </c>
       <c r="R14">
-        <v>0.03894326281999999</v>
+        <v>1.0366804917</v>
       </c>
       <c r="S14">
-        <v>3.257638446737515E-06</v>
+        <v>7.478429034989138E-05</v>
       </c>
       <c r="T14">
-        <v>3.257638446737515E-06</v>
+        <v>7.478429034989138E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H15">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I15">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J15">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N15">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q15">
-        <v>2.673927423962667</v>
+        <v>17.29878949804445</v>
       </c>
       <c r="R15">
-        <v>24.065346815664</v>
+        <v>155.6891054824</v>
       </c>
       <c r="S15">
-        <v>0.002013087588041481</v>
+        <v>0.01123113568927851</v>
       </c>
       <c r="T15">
-        <v>0.002013087588041481</v>
+        <v>0.01123113568927851</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H16">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I16">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J16">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N16">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q16">
-        <v>0.009366912862999999</v>
+        <v>0.07817829180000001</v>
       </c>
       <c r="R16">
-        <v>0.08430221576699999</v>
+        <v>0.7036046262000001</v>
       </c>
       <c r="S16">
-        <v>7.051955058236713E-06</v>
+        <v>5.075678869096983E-05</v>
       </c>
       <c r="T16">
-        <v>7.051955058236713E-06</v>
+        <v>5.075678869096983E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H17">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I17">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J17">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N17">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q17">
-        <v>0.06284462738666667</v>
+        <v>0.3854971599294444</v>
       </c>
       <c r="R17">
-        <v>0.56560164648</v>
+        <v>3.469474439365</v>
       </c>
       <c r="S17">
-        <v>4.731307896895139E-05</v>
+        <v>0.000250281727024225</v>
       </c>
       <c r="T17">
-        <v>4.731307896895139E-05</v>
+        <v>0.000250281727024225</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H18">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I18">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J18">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q18">
-        <v>0.107792541802</v>
+        <v>0.5265808031183333</v>
       </c>
       <c r="R18">
-        <v>0.970132876218</v>
+        <v>4.739227228065</v>
       </c>
       <c r="S18">
-        <v>8.115247483548694E-05</v>
+        <v>0.0003418794391283748</v>
       </c>
       <c r="T18">
-        <v>8.115247483548694E-05</v>
+        <v>0.0003418794391283749</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H19">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I19">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J19">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N19">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q19">
-        <v>0.0007958497466666667</v>
+        <v>0.019478065535</v>
       </c>
       <c r="R19">
-        <v>0.007162647719999999</v>
+        <v>0.175302589815</v>
       </c>
       <c r="S19">
-        <v>5.99161829376186E-07</v>
+        <v>1.264601763105877E-05</v>
       </c>
       <c r="T19">
-        <v>5.99161829376186E-07</v>
+        <v>1.264601763105877E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H20">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I20">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J20">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N20">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q20">
-        <v>0.4918026580160001</v>
+        <v>2.925223946964445</v>
       </c>
       <c r="R20">
-        <v>4.426223922144001</v>
+        <v>26.32701552268</v>
       </c>
       <c r="S20">
-        <v>0.0003702575536439249</v>
+        <v>0.001899184163932308</v>
       </c>
       <c r="T20">
-        <v>0.0003702575536439249</v>
+        <v>0.001899184163932308</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H21">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I21">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J21">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N21">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q21">
-        <v>0.001722811398</v>
+        <v>0.01321994301</v>
       </c>
       <c r="R21">
-        <v>0.015505302582</v>
+        <v>0.11897948709</v>
       </c>
       <c r="S21">
-        <v>1.297032301912849E-06</v>
+        <v>8.58296898558269E-06</v>
       </c>
       <c r="T21">
-        <v>1.297032301912849E-06</v>
+        <v>8.58296898558269E-06</v>
       </c>
     </row>
   </sheetData>
